--- a/giua ki/0-SAMPLE-DOCUMENT/0-SAMPLE-DOCUMENT/PROJECT-PLAN.xlsx
+++ b/giua ki/0-SAMPLE-DOCUMENT/0-SAMPLE-DOCUMENT/PROJECT-PLAN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnning\hk9\lap trinh ung dung web\giua ki\0-SAMPLE-DOCUMENT\0-SAMPLE-DOCUMENT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnning\hk9\lap trinh ung dung web\code_web\giua ki\0-SAMPLE-DOCUMENT\0-SAMPLE-DOCUMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CBA27F-8FE4-436C-938C-F777E2429A22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83775218-311C-4C8D-966F-E83DD10BF2A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhân sự" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="97">
   <si>
     <t>Ngày bắt đầu</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Project Manager</t>
-  </si>
-  <si>
     <t>Backend Leader</t>
   </si>
   <si>
@@ -323,6 +320,12 @@
   </si>
   <si>
     <t>ĐỖ MINH ĐỨC</t>
+  </si>
+  <si>
+    <t>21/09/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Manager , Full Task Developer		</t>
   </si>
 </sst>
 </file>
@@ -650,6 +653,27 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -670,27 +694,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1610,8 +1613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
@@ -1623,7 +1626,7 @@
     <col min="6" max="6" width="17.140625" style="12" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="12" customWidth="1"/>
     <col min="8" max="8" width="5.85546875" style="12" customWidth="1"/>
-    <col min="9" max="9" width="4.85546875" style="12" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" style="12" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" style="12" customWidth="1"/>
     <col min="11" max="11" width="14.140625" style="12" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="26.140625" style="12" customWidth="1"/>
@@ -1631,38 +1634,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" s="10" customFormat="1" ht="29.1" customHeight="1">
-      <c r="B2" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
+      <c r="B2" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
     </row>
     <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="11">
-        <v>43922</v>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="G3" s="10"/>
-      <c r="H3" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
+      <c r="H3" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
       <c r="K3" s="11">
         <v>44013</v>
       </c>
@@ -1675,17 +1678,17 @@
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="L4" s="57"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" s="48"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="13"/>
@@ -1700,18 +1703,18 @@
       <c r="L5" s="27"/>
     </row>
     <row r="7" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
       <c r="L7" s="16"/>
     </row>
     <row r="8" spans="2:14" ht="20.100000000000001" customHeight="1">
@@ -1737,11 +1740,11 @@
       <c r="D9" s="31"/>
       <c r="E9" s="32"/>
       <c r="F9" s="33"/>
-      <c r="G9" s="52" t="s">
+      <c r="G9" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
       <c r="J9" s="34" t="s">
         <v>8</v>
       </c>
@@ -1757,20 +1760,20 @@
         <v>1</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
+      <c r="G10" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
       <c r="J10" s="36"/>
       <c r="K10" s="37"/>
       <c r="L10" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="24.6" customHeight="1">
@@ -1778,19 +1781,19 @@
         <v>2</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
       <c r="F11" s="35"/>
-      <c r="G11" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
+      <c r="G11" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
       <c r="J11" s="36"/>
       <c r="K11" s="37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L11" s="38"/>
     </row>
@@ -1799,19 +1802,19 @@
         <v>3</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="35"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
+      <c r="G12" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
       <c r="J12" s="36"/>
       <c r="K12" s="37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L12" s="38"/>
     </row>
@@ -1823,9 +1826,9 @@
       <c r="D13" s="35"/>
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
       <c r="J13" s="36"/>
       <c r="K13" s="37"/>
       <c r="L13" s="38"/>
@@ -1838,9 +1841,9 @@
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
       <c r="J14" s="36"/>
       <c r="K14" s="37"/>
       <c r="L14" s="38"/>
@@ -1849,13 +1852,13 @@
       <c r="B15" s="35">
         <v>3</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
       <c r="J15" s="36"/>
       <c r="K15" s="35"/>
       <c r="L15" s="38"/>
@@ -1864,13 +1867,13 @@
       <c r="B16" s="35">
         <v>3</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
       <c r="J16" s="36"/>
       <c r="K16" s="35"/>
       <c r="L16" s="38"/>
@@ -1880,13 +1883,13 @@
       <c r="B17" s="35">
         <v>3</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
       <c r="J17" s="40"/>
       <c r="K17" s="41"/>
       <c r="L17" s="42"/>
@@ -1897,31 +1900,31 @@
         <v>4</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D18" s="35"/>
       <c r="E18" s="35"/>
       <c r="F18" s="35"/>
-      <c r="G18" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
+      <c r="G18" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
       <c r="J18" s="36"/>
       <c r="K18" s="37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L18" s="38"/>
       <c r="M18" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="G9:I9"/>
@@ -1929,12 +1932,12 @@
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L10" r:id="rId1" xr:uid="{E8A7006C-272B-458C-A408-D8F794346940}"/>
@@ -1969,34 +1972,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" s="10" customFormat="1" ht="29.1" customHeight="1">
-      <c r="B2" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
+      <c r="B2" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
     </row>
     <row r="3" spans="2:13" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
       <c r="F3" s="11"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="55"/>
+      <c r="H3" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="46"/>
       <c r="J3" s="11"/>
     </row>
     <row r="4" spans="2:13">
@@ -2006,51 +2009,51 @@
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F4" s="14"/>
-      <c r="H4" s="56" t="s">
+      <c r="H4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="56"/>
-      <c r="J4" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="K4" s="57"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" s="48"/>
     </row>
     <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
       <c r="G6" s="58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" s="58"/>
       <c r="I6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="K6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="L6" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>22</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -2069,13 +2072,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
       <c r="F8" s="22"/>
       <c r="G8" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="21"/>
       <c r="I8" s="18"/>
@@ -2090,13 +2093,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="21"/>
       <c r="I9" s="18"/>
@@ -2111,13 +2114,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
       <c r="G10" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="18"/>
@@ -2132,13 +2135,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
       <c r="G11" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="21"/>
       <c r="I11" s="18"/>
@@ -2165,13 +2168,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
       <c r="G13" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="21"/>
       <c r="I13" s="18"/>
@@ -2183,10 +2186,10 @@
     </row>
     <row r="14" spans="2:13" ht="21.95" customHeight="1">
       <c r="B14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>31</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -2205,13 +2208,13 @@
         <v>1</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
       <c r="G15" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="21"/>
       <c r="I15" s="25"/>
@@ -2235,10 +2238,10 @@
     </row>
     <row r="17" spans="2:11" ht="24.6" customHeight="1">
       <c r="B17" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>32</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>33</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -2257,13 +2260,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H18" s="21"/>
       <c r="I18" s="25"/>
@@ -2290,13 +2293,13 @@
         <v>2</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="25"/>
@@ -2370,13 +2373,13 @@
         <v>3</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
       <c r="G26" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="21"/>
       <c r="I26" s="25"/>
@@ -2388,10 +2391,10 @@
     </row>
     <row r="27" spans="2:11" ht="22.9" customHeight="1">
       <c r="B27" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>38</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>39</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
@@ -2410,13 +2413,13 @@
         <v>1</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H28" s="21"/>
       <c r="I28" s="25">
@@ -2435,13 +2438,13 @@
         <v>2</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
       <c r="G29" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H29" s="21"/>
       <c r="I29" s="25">
@@ -2460,13 +2463,13 @@
         <v>3</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H30" s="21"/>
       <c r="I30" s="25">
@@ -2485,13 +2488,13 @@
         <v>4</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H31" s="21"/>
       <c r="I31" s="25">
@@ -2510,13 +2513,13 @@
         <v>5</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="21"/>
       <c r="F32" s="21"/>
       <c r="G32" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H32" s="21"/>
       <c r="I32" s="25">
@@ -2535,13 +2538,13 @@
         <v>6</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D33" s="21"/>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
       <c r="G33" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H33" s="21"/>
       <c r="I33" s="25">
@@ -2560,13 +2563,13 @@
         <v>7</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
       <c r="G34" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H34" s="21"/>
       <c r="I34" s="25">
@@ -2585,13 +2588,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D35" s="21"/>
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
       <c r="G35" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H35" s="21"/>
       <c r="I35" s="25">
@@ -2610,13 +2613,13 @@
         <v>9</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
       <c r="G36" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H36" s="21"/>
       <c r="I36" s="25">
@@ -2635,13 +2638,13 @@
         <v>10</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D37" s="21"/>
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
       <c r="G37" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H37" s="21"/>
       <c r="I37" s="25">
@@ -2660,13 +2663,13 @@
         <v>11</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D38" s="21"/>
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
       <c r="G38" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H38" s="21"/>
       <c r="I38" s="25">
@@ -2685,13 +2688,13 @@
         <v>12</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
       <c r="G39" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H39" s="21"/>
       <c r="I39" s="25">
@@ -2710,13 +2713,13 @@
         <v>13</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D40" s="21"/>
       <c r="E40" s="21"/>
       <c r="F40" s="21"/>
       <c r="G40" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H40" s="21"/>
       <c r="I40" s="25">
@@ -2735,10 +2738,10 @@
         <v>14</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I41" s="25">
         <v>42670</v>
@@ -2753,10 +2756,10 @@
     </row>
     <row r="42" spans="2:11" ht="19.899999999999999" customHeight="1">
       <c r="B42" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
@@ -2775,13 +2778,13 @@
         <v>1</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D43" s="21"/>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
       <c r="G43" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H43" s="21"/>
       <c r="I43" s="25">
@@ -2800,13 +2803,13 @@
         <v>2</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D44" s="21"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
       <c r="G44" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H44" s="21"/>
       <c r="I44" s="25">
@@ -2825,13 +2828,13 @@
         <v>3</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
       <c r="G45" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H45" s="21"/>
       <c r="I45" s="25">
@@ -2850,13 +2853,13 @@
         <v>4</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D46" s="21"/>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
       <c r="G46" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H46" s="21"/>
       <c r="I46" s="25">
@@ -2875,13 +2878,13 @@
         <v>5</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D47" s="21"/>
       <c r="E47" s="21"/>
       <c r="F47" s="21"/>
       <c r="G47" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H47" s="21"/>
       <c r="I47" s="25">
@@ -2900,13 +2903,13 @@
         <v>6</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D48" s="21"/>
       <c r="E48" s="21"/>
       <c r="F48" s="21"/>
       <c r="G48" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H48" s="21"/>
       <c r="I48" s="25">
@@ -2925,13 +2928,13 @@
         <v>7</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D49" s="21"/>
       <c r="E49" s="21"/>
       <c r="F49" s="21"/>
       <c r="G49" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H49" s="21"/>
       <c r="I49" s="25">
@@ -2950,10 +2953,10 @@
         <v>8</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G50" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H50" s="21"/>
       <c r="I50" s="25">
@@ -2972,13 +2975,13 @@
         <v>9</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D51" s="21"/>
       <c r="E51" s="21"/>
       <c r="F51" s="21"/>
       <c r="G51" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H51" s="21"/>
       <c r="I51" s="25">
@@ -2997,10 +3000,10 @@
         <v>10</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G52" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H52" s="21"/>
       <c r="I52" s="25">
@@ -3019,13 +3022,13 @@
         <v>11</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D53" s="21"/>
       <c r="E53" s="21"/>
       <c r="F53" s="21"/>
       <c r="G53" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H53" s="21"/>
       <c r="I53" s="25">
@@ -3044,10 +3047,10 @@
         <v>12</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G54" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H54" s="21"/>
       <c r="I54" s="25">
@@ -3066,13 +3069,13 @@
         <v>13</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D55" s="21"/>
       <c r="E55" s="21"/>
       <c r="F55" s="21"/>
       <c r="G55" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H55" s="21"/>
       <c r="I55" s="25">
@@ -3091,10 +3094,10 @@
         <v>14</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G56" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H56" s="21"/>
       <c r="I56" s="25">
@@ -3113,13 +3116,13 @@
         <v>15</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D57" s="21"/>
       <c r="E57" s="21"/>
       <c r="F57" s="21"/>
       <c r="G57" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H57" s="21"/>
       <c r="I57" s="25">
@@ -3138,10 +3141,10 @@
         <v>16</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G58" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H58" s="21"/>
       <c r="I58" s="25">
@@ -3157,10 +3160,10 @@
     </row>
     <row r="59" spans="2:11" ht="18.600000000000001" customHeight="1">
       <c r="B59" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="13"/>
@@ -3179,13 +3182,13 @@
         <v>1</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D60" s="21"/>
       <c r="E60" s="21"/>
       <c r="F60" s="21"/>
       <c r="G60" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H60" s="21"/>
       <c r="I60" s="25">
@@ -3204,13 +3207,13 @@
         <v>2</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D61" s="21"/>
       <c r="E61" s="21"/>
       <c r="F61" s="21"/>
       <c r="G61" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H61" s="21"/>
       <c r="I61" s="25">
@@ -3229,13 +3232,13 @@
         <v>3</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D62" s="21"/>
       <c r="E62" s="21"/>
       <c r="F62" s="21"/>
       <c r="G62" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H62" s="21"/>
       <c r="I62" s="25">
@@ -3254,13 +3257,13 @@
         <v>4</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D63" s="21"/>
       <c r="E63" s="21"/>
       <c r="F63" s="21"/>
       <c r="G63" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H63" s="21"/>
       <c r="I63" s="25">
@@ -3279,13 +3282,13 @@
         <v>4</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D64" s="21"/>
       <c r="E64" s="21"/>
       <c r="F64" s="21"/>
       <c r="G64" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H64" s="21"/>
       <c r="I64" s="25">
@@ -3318,8 +3321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -3339,7 +3342,7 @@
   <sheetData>
     <row r="2" spans="2:14" s="3" customFormat="1" ht="29.1" customHeight="1">
       <c r="B2" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="59"/>
       <c r="D2" s="59"/>
@@ -3362,7 +3365,7 @@
       <c r="D3" s="62"/>
       <c r="E3" s="62"/>
       <c r="F3" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="62" t="s">
@@ -3382,7 +3385,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H4" s="60" t="s">
         <v>3</v>
@@ -3390,47 +3393,47 @@
       <c r="I4" s="60"/>
       <c r="J4" s="60"/>
       <c r="K4" s="61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L4" s="61"/>
     </row>
     <row r="6" spans="2:14" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H6" s="63"/>
       <c r="I6" s="63"/>
       <c r="J6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="L6" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:14">
       <c r="B7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="J7" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L7" s="7" t="e">
         <f>K7-J7</f>
@@ -3439,13 +3442,13 @@
     </row>
     <row r="8" spans="2:14">
       <c r="B8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="J8" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K8" s="2">
         <v>44114</v>
@@ -3457,13 +3460,13 @@
     </row>
     <row r="9" spans="2:14">
       <c r="B9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="J9" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="7" t="e">
@@ -3473,13 +3476,13 @@
     </row>
     <row r="10" spans="2:14">
       <c r="B10" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="7" t="e">
@@ -3489,10 +3492,10 @@
     </row>
     <row r="11" spans="2:14">
       <c r="B11" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="2"/>
@@ -3503,10 +3506,10 @@
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="2"/>
@@ -3530,21 +3533,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tài liệu" ma:contentTypeID="0x010100AD3CF939A1FFCA4AACFD02C563266947" ma:contentTypeVersion="9" ma:contentTypeDescription="Tạo tài liệu mới." ma:contentTypeScope="" ma:versionID="722792d17798ca91139067d60ad9836b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4cef747c-45bf-4978-9c48-8036d51767c7" xmlns:ns3="31e5112a-9ff6-4e31-b05c-8194e57c8b54" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ce0d175850f70df34df1d69eddb8c7b9" ns2:_="" ns3:_="">
     <xsd:import namespace="4cef747c-45bf-4978-9c48-8036d51767c7"/>
@@ -3741,24 +3729,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{946FCB00-28AE-480E-9E1F-6B52F27375BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{078804CC-B049-463D-ACB1-050CD09D7EAE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77DB7029-0208-4B6C-88E1-2160E9F20104}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3775,4 +3761,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{078804CC-B049-463D-ACB1-050CD09D7EAE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{946FCB00-28AE-480E-9E1F-6B52F27375BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>